--- a/extracted_tables.xlsx
+++ b/extracted_tables.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,508 +425,1718 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>US Tariff by Country or SectorTop 18 Trading Partners Listed</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Latest Rate of US Tariff</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Related Retaliatory Tariffs</t>
+          <t>Ad ValoremTariff Rate</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Volume of Imports into US in 2024</t>
+          <t>Scope1</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Links to The Conference Board Analysis</t>
+          <t>Additional Information</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Countermeasures Announced</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>European Union, includes:Germany, Ireland, Italy, France, Netherlands, Belgium</t>
+          <t>All</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dropped to 10% on April 10 after the initial 20% in effect April 9</t>
+          <t>Reciprocal tariffs:Implemented (effectiveApr. 5, 2025)Threatened to start on or after Apr. 2 (Mar. 24, 2025)Threatened “secondary tariffs” (Mar. 30, 2025)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ON PAUSE as of April 10 for 90 days.The European Union officials on April 9 approved tariffs on US goods that will take effect April 15 from 10-25% on $24 billion worth of US goods, including tobacco, motorcycles, poultry, steel and aluminum. American whiskey is not included on list, due to threats of US tariffs on EU alcoholic beverages of 200%.</t>
+          <t>10% baseline (unless replaced by a country-specific rate below)25%25–50%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$609 B</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>All products (seeexceptions below)All products from any country that imports Venezuelan oilAll products from any country that imports Iranian or Russian oil</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>See relatedpublications belowFor trading partners with a country-specific rate below:Under the current language of the executive order,it appears the country-specific rate was in effect on April 9. Further guidance on this point maybe forthcoming. Effective April 10, the country-specific rate for allcountries, except China, is suspended until July 9. During this time, importsfrom those trading partners will be subject to the 10% baseline reciprocaltariff rate.Executive Order(Apr.9, 2025)Exec. Order14257(Apr.2, 2025)Reciprocal Trade and Tariffs Memorandum(Feb. 13, 2025)Exec. Order 14245(Mar. 24, 2025)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25% in effect for goods not covered by USMCA10% in effect for potash (fertilizer)</t>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mexico said they will announce retaliatory tariffs after April 2</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$516 B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>The Importance of Mexico to US Food Supply(February 4)</t>
-        </is>
-      </c>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clarified to be 145% on April 10125% as of April 920% in effect as of March 4, an additional 34% was announced on April 2, for a total of 54%, and then 50% added as a result of China's retaliatory tariffs of 84%.</t>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>China announced that tariffs on goods entering China will rise to 84% from 34% starting April 10.</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$440 B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>The US-China Trade War Escalates(April 9)</t>
-        </is>
-      </c>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25% in effect for goods not covered by USMCA10% in effect for energy and energy resources10% in effect for potash (fertilizer)</t>
+          <t>Threatened (Feb. 21, 2025)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Effective March 4 Canada imposed retaliatory tariffs on about $20 billion of US imports, including meat and dairy products, alcoholic and non-alcoholic beverages, tobacco, cosmetics, tires, clothing, paper products, tools, and appliances, there are separate retaliatory tariffs resulting from steel and aluminum,see below</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$420 B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>See also EUDefending American Corporations and Innovators from Overseas Extortion Memo(Feb. 21, 2025)USTR may renew Section 301 investigation to address digital services taxes (DSTs)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10% effective April 524% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$150 B</t>
+          <t>All products (see exceptions below)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vietnam</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10% effective April 546% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
+          <t>Belarus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$137 B</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff exemption:imports not subject to reciprocal tariffs at this time</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10% on April 525% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$133 B</t>
+          <t>All products (see exceptions below)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10% effective April 532% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$116 B</t>
+          <t>All products (see exceptions below)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>BRICS2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10% effective April 526% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Threatened (Jan. 30, 2025)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$87 B</t>
+          <t>All products</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$69 B</t>
+          <t>All products (see exceptions below)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10% effective April 531% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>$64 B</t>
+          <t>All products (see exceptions below)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10% effective April 524% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>$53 B</t>
+          <t>All products (see exceptions below)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>Implemented (effective Mar. 4, 2025; adjusted Mar. 6, 2025)Threatened to start Apr. 2 (Mar. 7, 2025)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0%10%10%25%250%</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>$43 B</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Goods entered duty free under the United States-Mexico-Canada Agreement (USMCA),effective Mar. 7, 2025Energy or energy resourcesPotash that is not entered duty free under the USMCA, effective Mar. 7, 2025All other productsDairy products and lumber</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>See related publications belowReciprocal tariff exemption:imports not subject to reciprocal tariffs at this timeDe minimisexemption remains available until further noticeExec. Order 14231(Mar.6, 2025)Defending American Corporations and Innovators from Overseas Extortion Memo(Feb. 21, 2025)USTRmay initiate Section 302 investigation to address DSTsExec. Order 14197(Feb. 3, 2025)Exec. Order 14193(Feb. 1, 2025)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Effective Apr. 9, 2025:(a)25%ad valoremtariffson (a) non-USMCA compliant fully assembled vehicles; and (b) non-Canadian and non-Mexican content of USMCA-compliant fully assembled vehicles imported from the United StatesEffective Mar. 13, 2025:25%ad valoremtariffs on CAD$29.8 billionworth of U.S.-origin goodsThe Ontario government suspended its 25% surcharge on all electricity exports tothe United States (Mar. 11, 2025)Effective Mar. 4, 2025:25%ad valoremtariff on$30 billionworth of U.S.-origin goodsEffective date expected Apr. 2:25%ad valoremtariff on$125 billionworth of additional goods</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$43 B</t>
+          <t>All products (see exceptions below)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10% effective April 517% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Reciprocal tariff:Implemented(effective Apr. 9, 2025; increased effective Apr. 9, 2025; increased effective Apr. 10, 2025)Implemented (effective Feb. 4, 2025; increased Mar. 4, 2025)Threatened to start Apr. 2(Mar. 24, 2025)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>125%20%25%</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$22 B</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>All products, including Hong Kong- and Macau-origin goods (see exceptions below)All products, including Hong Kong-origin goodsAll products</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>See related publications belowDuty-freede minimisexemptionrevoked (effective May 2, 2025)Purchaser of Venezuelan oil, which may trigger additional tariffsExecutive Order(Apr. 9, 2025)Executive Order(Apr. 8, 2025)Exec. Order14256(Apr.2, 2025)Exec. Order 14228(Mar.3, 2025)Exec. Order 14195(Feb. 1, 2025)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Effective Apr. 10, 2025(increased effectiveApr. 12, 2025):additional125%ad valoremtariff on all U.S.-origin goodsEffective Mar. 10, 2025:(a) 15%ad valoremtariffs on U.S.-originchicken, cotton, corn, and wheat(b) 10%ad valoremtariffs on U.S.-originaquatic products, beef, dairy products, fruit, pork, sorghum, soybeans, andvegetablesEffective Mar. 4, 2025:imports of U.S.-origin logs suspendedEffective Feb. 10, 2025:(a) 15%ad valoremtariffs on supercooled natural gas and coal from the U.S.(b) 10%ad valoremtariffs on U.S.-origin crude oilEffective Feb. 4 (modified Apr. 4):export controls on tungsten; tellurium; bismuth; molybdenum; indium products; and seven categories of medium and heavy rare earth-related items, including samarium, gadolinium, zirconium, dysprosium, lutetium, scandium, and yttrium</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Threatened and rescinded (Jan. 26, 2025)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>$17 B</t>
+          <t>All products</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Côte d’Ivoire</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>$13 B</t>
+          <t>All products (see exceptions below)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>25% on all goods from countries that import oil from Venezuela</t>
-        </is>
-      </c>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>US Threatens Tariffs Against Any Country Importing Venezuelan Oil(March 26)</t>
-        </is>
-      </c>
+          <t>Reciprocal tariff exemption:imports not subject to reciprocal tariffs at this time</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>by sector</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>Democratic Republic of Congo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Steel &amp; Aluminum</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25% in effect on March 12</t>
+          <t>Threatened to start Apr. 2 (Mar. 24, 2025)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Canada retaliated to the steel and aluminum tariffs with new duties on about $20 billion of US goods including steel and aluminum, and consumer goods including computers, sports equipment and cast iron products, effective March 13</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>All products</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Steel &amp; Aluminum Tariffs Will Hike Costs...on Buildings, Bridges, and More(February 12)</t>
-        </is>
-      </c>
+          <t>Purchaser of Venezuelan oil, which may trigger additional tariffs</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Automobiles and Automobile Parts</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25% in effect April 3</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Auto Makers Hit a Tariff Speedbump(March 27)</t>
-        </is>
-      </c>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Semiconductors / Pharmaceuticals</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25%+ not yet in effect</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)Threatened (Feb. 26, 2025)Threatened (Mar. 13, 2025)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20%25%200%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)TBDAlcohol products, including champagne and wine</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>During a cabinet meeting on February 26, President Trump said the announcement will be made “very soon.”Defending American Corporations and Innovators from Overseas Extortion Memo(Feb. 21, 2025)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Delayed until July 9 (effective Apr. 10, 2025):additional duties ranging from 4.4% to 50% will be imposed on €8 billion worth of goods (see Annexes I and II toImplementing Regulation (EU) 2018/886and Article 1(2) ofImplementing Regulation (EU) 2020/502)Delayed until Aug. 13 (withsome coming into force on Dec. 1) (effective Apr. 10, 2025):additional duties on another €21 billion worth of goods</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Falkland Islands</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Timber</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Policy Alert: Increasing Domestic Supply of Timber and Lumber(March 4)</t>
-        </is>
-      </c>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Noteon Elimination of duty-freede minimistreatment that allowed exemption of levies on packages valued under $800 entering the US goes into effect on May 2.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Threatened (Feb. 21, 2025)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>See also EUDefending American Corporations and Innovators from Overseas Extortion Memo(Feb. 21, 2025)USTR may renew Section 301 investigation to address DSTs</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)Threatened to start Apr. 2 (Mar. 24, 2025)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>27%25%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)All products</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Purchaser of Venezuelan oil, which may trigger additional tariffs</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Laos</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Liechtenstein</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)Threatened to start Apr. 2 (Mar. 24, 2025)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24%25%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)All products</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Purchaser of Venezuelan oil, which may trigger additional tariffs</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Implemented (effective Mar. 4, 2025; adjusted Mar. 5, 2025)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0%10%25%</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Goods entered duty free under the USMCA, effective Mar. 7, 2025Potashthat is not entered duty free under the USMCA, effective Mar. 7, 2025All other products</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>See related publications belowReciprocal tariff exemption:imports not subject to reciprocal tariffs at this timeDe minimisexemption remains available until further noticeExec. Order 14232(Mar.6, 2025)Exec. Order 14198(Feb. 3, 2025)Exec. Order 14194(Feb. 1, 2025)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Myanmar (Burma)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>North Korea</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff exemption:imports not subject to reciprocal tariffs at this time</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Threatened (Jan. 22, 2025)Threatened to start Apr. 2 (Mar. 24, 2025)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TBD25%</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>TBDAll products</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff exemption:imports not subject to reciprocal tariffs at this timePurchaser of Venezuelan oil, which may trigger additional tariffs</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Threatened to start Apr. 2 (Mar. 24, 2025)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>All products</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Purchaser of Venezuelan oil, which may trigger additional tariffs</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Threatened (Feb. 21, 2025)Threatened to start Apr. 2 (Mar. 24, 2025)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TBD25%</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>TBDAll products</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>See also EUPurchaser of Venezuelan oil, which may trigger additional tariffsDefending American Corporations and Innovators from Overseas Extortion Memo(Feb. 21, 2025)USTR may renew Section 301 investigation to address DSTs</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Threatened (Feb. 21, 2025)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Defending American Corporations and Innovators from Overseas Extortion Memo(Feb. 21, 2025)USTR may renew Section 301 investigation to address DSTs</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Threatened (Feb. 21, 2025)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Defending American Corporations and Innovators from Overseas Extortion Memo(Feb. 21, 2025)USTR may renew Section 301 investigation to address DSTs</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)Threatened to start Apr. 2 (Mar. 24, 2025)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>46%25%</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)All products</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Purchaser of Venezuelan oil, which may trigger additional tariffs</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff:Delayed until July 9 (effective Apr. 10, 2025)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>All products (see exceptions below)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -939,7 +2149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,49 +2160,49 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>US Tariff by Country or SectorTop 18 Trading Partners Listed</t>
+          <t>Product</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Latest Rate of US Tariff</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Related Retaliatory Tariffs</t>
+          <t>Ad ValoremTariff Rate</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Volume of Imports into US in 2024</t>
+          <t>Scope</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Links to The Conference Board Analysis</t>
+          <t>Additional Information</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>European Union, includes:Germany, Ireland, Italy, France, Netherlands, Belgium</t>
+          <t>Agricultural products</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dropped to 10% on April 10 after the initial 20% in effect April 9</t>
+          <t>Threatened to start Apr. 2 (Mar. 3, 2025)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ON PAUSE as of April 10 for 90 days.The European Union officials on April 9 approved tariffs on US goods that will take effect April 15 from 10-25% on $24 billion worth of US goods, including tobacco, motorcycles, poultry, steel and aluminum. American whiskey is not included on list, due to threats of US tariffs on EU alcoholic beverages of 200%.</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$609 B</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1000,114 +2210,130 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Aluminum</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25% in effect for goods not covered by USMCA10% in effect for potash (fertilizer)</t>
+          <t>Implemented (effective Mar. 12, 2025)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mexico said they will announce retaliatory tariffs after April 2</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$516 B</t>
+          <t>See HTSUS Chapter 99, Notes 19(g) and 19(i)-(k)Effective Apr. 4:includes beer (2203.00.00, HTSUS) and empty aluminum cans (7612.90.10, HTSUS)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The Importance of Mexico to US Food Supply(February 4)</t>
+          <t>See related publications belowReciprocal tariff exception: aluminum and derivative products subject to Section 232 tariffs are not subject to the reciprocal tariffsAll country exclusions from the existing Section 232 tariffs on aluminum and derivative aluminum articles are revoked.Individual exclusions and General Authorized Exclusions are also being revoked.Increases the tariff rate from 10% to 25%.Expands the list of derivative products subject to the tariffs (effective Mar. 12, 2025).Proclamation 10895(Feb. 10, 2025)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clarified to be 145% on April 10125% as of April 920% in effect as of March 4, an additional 34% was announced on April 2, for a total of 54%, and then 50% added as a result of China's retaliatory tariffs of 84%.</t>
+          <t>Implemented (effective Apr. 3, 2025)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>China announced that tariffs on goods entering China will rise to 84% from 34% starting April 10.</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$440 B</t>
+          <t>See HTSUS Chapter 99, notes 33(a)-(e)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The US-China Trade War Escalates(April 9)</t>
+          <t>Reciprocal tariff exception:automobiles subjectto Section 232 tariffs are not subject to the reciprocal tariffsFor automobiles that qualify for preferential treatment under the USMCA, the tariff will apply to the non-U.S. content.Proclamation10908(Mar. 26, 2025)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Automobile parts</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25% in effect for goods not covered by USMCA10% in effect for energy and energy resources10% in effect for potash (fertilizer)</t>
+          <t>Implemented (effective May 3, 2025)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Effective March 4 Canada imposed retaliatory tariffs on about $20 billion of US imports, including meat and dairy products, alcoholic and non-alcoholic beverages, tobacco, cosmetics, tires, clothing, paper products, tools, and appliances, there are separate retaliatory tariffs resulting from steel and aluminum,see below</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$420 B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>See HTSUS Chapter 99, notes 33(g)-(h)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Reciprocal tariff exception:automobileparts subject to Section 232 tariffs at the time of import are not subject to the reciprocal tariffsParts that qualify for preferential treatment under the USMCA will initially be exempt. The Commerce Department will establish a process for applying the tariff exclusively to the value of the non-U.S. content in these parts and then publish notice of that process in theFederal Register.By June 24, 2025, the Commerce Department will establish a process for including additional parts within the scope of this tariff.Proclamation 10908(Mar. 26, 2025)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10% effective April 524% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Threatened (Feb. 25, 2025)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$150 B</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Commerce initiated a Section 232 investigation. A report is due to the President by November 22, 2025.Exec. Order 14220(Feb. 25, 2025)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Integrated circuits</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10% effective April 546% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Threatened (Jan. 31, 2025)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$137 B</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1115,56 +2341,76 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Lumber, timber, and derivative products</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10% on April 525% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Threatened (Mar. 3, 2025)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$133 B</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Commerce initiated a Section 232 investigation. A report is due to the President by November 26, 2025.Exec. Order 14223(Mar. 1, 2025)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Maritime cargo handling equipment</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10% effective April 532% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Threatened (Apr. 9, 2025)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$116 B</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>As part of the USTR’sSection 301 investigation into China’s targeting of the maritime, logistics, and shipbuilding sectors, President Trump directed the USTR to consider tariffs on (a) ship-to-shore cranes manufactured, assembled, or made using Chinese-origin components, or manufactured anywhere in the world by a company owned, controlled, or substantially influenced by a Chinese national; and (b) other cargo handling equipment.Executive Order(Apr. 9, 2025)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Oil and gas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10% effective April 526% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Threatened to start Feb. 18, 2025 (Jan. 31, 2025)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$87 B</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1172,286 +2418,83 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Medicine and pharmaceuticals</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Threatened (Feb. 18, 2025)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>25% or higher</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$69 B</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Expected to “go very substantially higher over the course of a year,” according to Trump.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10% effective April 531% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>Threatened (Feb. 18, 2025)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25% or higher</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>$64 B</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Expected to “go very substantially higher over the course of a year,” according to Trump.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10% effective April 524% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Implemented (effective Mar. 12, 2025)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>$53 B</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$43 B</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$43 B</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>10% effective April 517% effective April 9Dropped back to 10% on April 9 in PM</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$22 B</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$17 B</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>10% effective April 5 and continues at that rate</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$13 B</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>25% on all goods from countries that import oil from Venezuela</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>US Threatens Tariffs Against Any Country Importing Venezuelan Oil(March 26)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>by sector</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Steel &amp; Aluminum</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>25% in effect on March 12</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Canada retaliated to the steel and aluminum tariffs with new duties on about $20 billion of US goods including steel and aluminum, and consumer goods including computers, sports equipment and cast iron products, effective March 13</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Steel &amp; Aluminum Tariffs Will Hike Costs...on Buildings, Bridges, and More(February 12)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Automobiles and Automobile Parts</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>25% in effect April 3</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Auto Makers Hit a Tariff Speedbump(March 27)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Semiconductors / Pharmaceuticals</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>25%+ not yet in effect</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Copper</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Timber</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Policy Alert: Increasing Domestic Supply of Timber and Lumber(March 4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Noteon Elimination of duty-freede minimistreatment that allowed exemption of levies on packages valued under $800 entering the US goes into effect on May 2.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+          <t>See HTSUS Chapter 99, notes 16(j), 16(l)-(m)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>See related publications belowReciprocal tariff exception:steel andderivative products subject to Section 232 tariffs are not subject to the reciprocal tariffsAll country exclusions from the existing Section 232 tariffs on aluminum and derivative aluminum articles are revoked. Individual exclusions and General Authorized Exclusions are also being revoked.Expands the list of derivative products subject to the tariffs (effective Mar. 12, 2025).Proclamation 10896(Feb. 10, 2025)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
